--- a/biology/Botanique/Schumach/Schumach..xlsx
+++ b/biology/Botanique/Schumach/Schumach..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heinrich Christian Friedrich Schumacher est un médecin et un naturaliste, sujet de la couronne danoise, né le 15 novembre 1757 à Glückstadt dans le duché de Holstein-Glückstadt et mort le 9 décembre 1830 à Copenhague.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études de médecine à Rendsburg et suit les cours du chirurgien militaire Möhl.
 Il entre dans l'armée en 1773 comme aide-chirurgien. Il part pour Copenhague en 1777 pour compléter sa formation.
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est notamment l'auteur de :
 Bemerkung einer Schusswunde (1778).
